--- a/Test docs/CheckList_TestCases_BagReports_UA.xlsx
+++ b/Test docs/CheckList_TestCases_BagReports_UA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ЛЕША\testing\Тест документы примеры\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ЛЕША\testing\Postmen collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D68DEE-E138-41C4-AF64-7FC6ADECD849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9D5617-FA36-4DC4-BEFB-94CB2AF898BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A1F404EE-EB25-43AE-B548-7F868804BD73}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{A1F404EE-EB25-43AE-B548-7F868804BD73}"/>
   </bookViews>
   <sheets>
     <sheet name="Check list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="192">
   <si>
     <t>№</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>Summary:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Перевірка управління проектами користувачу з правами ADMIN </t>
   </si>
   <si>
     <t>Priority:</t>
@@ -305,9 +302,6 @@
     <t>2. Натиснути кнопку  "add subproject"</t>
   </si>
   <si>
-    <t>Нижче ryjgrb відкрилися поля для створення субпроекту</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">3. Ввести валідну назву </t>
     </r>
@@ -388,18 +382,12 @@
     <t xml:space="preserve">Створення проекту з валідними даними усіх необхідних полів (включно з тими, що з'явлються після першої відмови) </t>
   </si>
   <si>
-    <t xml:space="preserve">6. Обрати Замовника (що є Замовником батьківського проекту) в полі "Customer:" </t>
-  </si>
-  <si>
     <t>8. Обрати Відповідального за субпроект з існуючих варіантов  в полі "Lead:"</t>
   </si>
   <si>
     <t>Користувач залишається на вкладці з полями для створення нового проекту. 
 З'являеться червоне поле з описом помилки: "External rate external_rate required in any selected category". 
 У стовпчику "Categories:" біля фахових категорій тарифікації з ввікнутими чекбоксами з'явилися порожні поля вводу тарифної ставки.</t>
-  </si>
-  <si>
-    <t>11. Ввести валідну тарифну ставку в поля, які з'явилися біля фахових категорій тарифікації у стовпчику "Categories:"</t>
   </si>
   <si>
     <t>Введені ставки відображаються в полях</t>
@@ -476,12 +464,6 @@
     <t>7. Ввімкнути чекбокси інших співробітників у стовпчику "Employees:"</t>
   </si>
   <si>
-    <t>8. Обрати іншого Відповідального за субпроект з існуючих варіантов  в полі "Lead:"</t>
-  </si>
-  <si>
-    <t>Відповідальний відображається в полі</t>
-  </si>
-  <si>
     <t>9. Ввімкнути чекбокси біля інших фахових категорій тарифікації, обраних з існуючих варінтів у стовпчику "Categories:"</t>
   </si>
   <si>
@@ -676,9 +658,6 @@
     <t>8. Не обирати Відповідального за проект з існуючих варіантов  в полі "Lead:"</t>
   </si>
   <si>
-    <t>9. У стовпчику "Categories:" секбокси залишити вимкнутими</t>
-  </si>
-  <si>
     <t>Чекбокси у стовпчику "Categories:" вимкнено</t>
   </si>
   <si>
@@ -837,6 +816,33 @@
   </si>
   <si>
     <t>BR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перевірка управління проектами користувача з правами ADMIN </t>
+  </si>
+  <si>
+    <t>Нижче відкрилися поля для створення субпроекту</t>
+  </si>
+  <si>
+    <t>11. Ввести валідні тарифні ставки в поля, які з'явилися біля фахових категорій тарифікації у стовпчику "Categories:"</t>
+  </si>
+  <si>
+    <t>8. Обрати іншого Відповідального за проект з існуючих варіантов  в полі "Lead:"</t>
+  </si>
+  <si>
+    <t>Обраний Відповідальний відображається в полі</t>
+  </si>
+  <si>
+    <t>Відкрилася вкладка з полями для редагування проекту, що клікнули.</t>
+  </si>
+  <si>
+    <t>Обраний Замовник відображається в полі</t>
+  </si>
+  <si>
+    <t>9. У стовпчику "Categories:" чекбокси залишити вимкнутими</t>
+  </si>
+  <si>
+    <t>1. Клікнути мишкою на назві проекту, у якого є субпроект.</t>
   </si>
 </sst>
 </file>
@@ -1958,8 +1964,8 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2005,7 +2011,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D2" s="52" t="s">
         <v>20</v>
@@ -2017,7 +2023,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2028,7 +2034,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>20</v>
@@ -2040,7 +2046,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="57" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2051,7 +2057,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>20</v>
@@ -2070,7 +2076,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>20</v>
@@ -2091,7 +2097,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>20</v>
@@ -2110,7 +2116,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>20</v>
@@ -2131,7 +2137,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D8" s="46" t="s">
         <v>20</v>
@@ -2150,7 +2156,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>20</v>
@@ -2171,7 +2177,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D10" s="46" t="s">
         <v>3</v>
@@ -2190,7 +2196,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D11" s="46" t="s">
         <v>3</v>
@@ -2202,7 +2208,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="57" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2213,7 +2219,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>3</v>
@@ -2234,7 +2240,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D13" s="46" t="s">
         <v>3</v>
@@ -2246,7 +2252,7 @@
         <v>32</v>
       </c>
       <c r="G13" s="57" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
@@ -2257,7 +2263,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D14" s="46" t="s">
         <v>3</v>
@@ -2266,10 +2272,10 @@
         <v>20</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2280,7 +2286,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D15" s="61" t="s">
         <v>3</v>
@@ -2306,8 +2312,8 @@
   </sheetPr>
   <dimension ref="A1:C186"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2332,20 +2338,20 @@
         <v>34</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>4</v>
@@ -2353,48 +2359,48 @@
     </row>
     <row r="6" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="21"/>
     </row>
     <row r="7" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>41</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>47</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2407,7 +2413,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -2415,20 +2421,20 @@
         <v>34</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>3</v>
@@ -2436,116 +2442,116 @@
     </row>
     <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="31" t="s">
         <v>53</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="31" t="s">
         <v>55</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="31" t="s">
         <v>57</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="31" t="s">
         <v>60</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="31" t="s">
         <v>62</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="31" t="s">
         <v>64</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="31" t="s">
         <v>66</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="34" t="s">
         <v>68</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -2573,20 +2579,20 @@
         <v>34</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="28" t="s">
         <v>3</v>
@@ -2594,125 +2600,125 @@
     </row>
     <row r="38" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="90" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="23" t="s">
         <v>71</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -2729,7 +2735,7 @@
         <v>33</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
@@ -2737,20 +2743,20 @@
         <v>34</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C58" s="37" t="s">
         <v>4</v>
@@ -2758,132 +2764,132 @@
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C59" s="38"/>
     </row>
     <row r="60" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="31" t="s">
         <v>53</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="31" t="s">
         <v>55</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="31" t="s">
         <v>57</v>
-      </c>
-      <c r="C65" s="31" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="32" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="31" t="s">
         <v>62</v>
-      </c>
-      <c r="C68" s="31" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>65</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="31" t="s">
         <v>66</v>
-      </c>
-      <c r="C70" s="31" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="32" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
       <c r="B73" s="33" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -2913,20 +2919,20 @@
         <v>34</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C81" s="28" t="s">
         <v>3</v>
@@ -2934,123 +2940,123 @@
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C82" s="29"/>
     </row>
     <row r="83" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="32" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="32" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="32" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="32" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9"/>
       <c r="B95" s="25" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3072,20 +3078,20 @@
         <v>34</v>
       </c>
       <c r="C99" s="27" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C101" s="39" t="s">
         <v>4</v>
@@ -3093,51 +3099,51 @@
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C102" s="29"/>
     </row>
     <row r="103" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="22" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="B106" s="32" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
       <c r="B107" s="33" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3154,20 +3160,20 @@
         <v>34</v>
       </c>
       <c r="C110" s="27" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C112" s="28" t="s">
         <v>3</v>
@@ -3175,116 +3181,116 @@
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C115" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="24" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C118" s="31" t="s">
         <v>55</v>
-      </c>
-      <c r="C118" s="31" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
       <c r="B119" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C119" s="31" t="s">
         <v>57</v>
-      </c>
-      <c r="C119" s="31" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
       <c r="B121" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
       <c r="B122" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C122" s="31" t="s">
         <v>62</v>
-      </c>
-      <c r="C122" s="31" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="B123" s="32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
       <c r="B124" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C124" s="31" t="s">
         <v>66</v>
-      </c>
-      <c r="C124" s="31" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9"/>
       <c r="B125" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3301,20 +3307,20 @@
         <v>34</v>
       </c>
       <c r="C130" s="36" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C132" s="40" t="s">
         <v>3</v>
@@ -3322,71 +3328,71 @@
     </row>
     <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C133" s="29" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B134" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C134" s="30" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B135" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C135" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9"/>
       <c r="B136" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9"/>
       <c r="B137" s="24" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9"/>
       <c r="B138" s="24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A139" s="9"/>
       <c r="B139" s="32" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9"/>
       <c r="B140" s="33" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C140" s="34" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3400,7 +3406,7 @@
         <v>33</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="145" spans="2:3" ht="26.4" x14ac:dyDescent="0.25">
@@ -3408,20 +3414,20 @@
         <v>34</v>
       </c>
       <c r="C145" s="27" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C147" s="40" t="s">
         <v>3</v>
@@ -3429,64 +3435,64 @@
     </row>
     <row r="148" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C148" s="41"/>
     </row>
     <row r="149" spans="2:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B149" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C149" s="30" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B150" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C150" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="151" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C151" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="152" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C152" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="153" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C153" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="2:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B154" s="32" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C154" s="18" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="155" spans="2:3" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B155" s="33" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C155" s="34" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="156" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -3507,20 +3513,20 @@
         <v>34</v>
       </c>
       <c r="C159" s="27" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="160" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C160" s="18" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="161" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C161" s="39" t="s">
         <v>4</v>
@@ -3528,104 +3534,104 @@
     </row>
     <row r="162" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C162" s="29"/>
     </row>
     <row r="163" spans="2:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B163" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C163" s="30" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="164" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B164" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C164" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="165" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C165" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="166" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="24" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C166" s="31" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="167" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="168" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="24" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="169" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="24" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="170" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="24" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C170" s="31" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="171" spans="2:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B171" s="32" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C171" s="31" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="172" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="32" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C172" s="31" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="173" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B173" s="32" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="C173" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="174" spans="2:3" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B174" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C174" s="34" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="176" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3634,7 +3640,7 @@
         <v>33</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="178" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -3642,20 +3648,20 @@
         <v>34</v>
       </c>
       <c r="C178" s="27" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="179" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C179" s="18" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="180" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C180" s="40" t="s">
         <v>3</v>
@@ -3663,50 +3669,50 @@
     </row>
     <row r="181" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C181" s="41" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="182" spans="2:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B182" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C182" s="30" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="183" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B183" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C183" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="184" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="22" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="C184" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="185" spans="2:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B185" s="32" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C185" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="186" spans="2:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B186" s="33" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C186" s="34" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3722,7 +3728,7 @@
   </sheetPr>
   <dimension ref="B1:E92"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
@@ -3740,7 +3746,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="73" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -3748,7 +3754,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -3756,104 +3762,104 @@
         <v>2</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E4" s="77"/>
     </row>
     <row r="5" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B5" s="74" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D5" s="77"/>
     </row>
     <row r="6" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B6" s="74" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D6" s="77"/>
     </row>
     <row r="7" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D7" s="77"/>
     </row>
     <row r="8" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B8" s="78" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C8" s="79"/>
     </row>
     <row r="9" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="76"/>
     </row>
     <row r="10" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C10" s="76"/>
     </row>
     <row r="11" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C11" s="76"/>
     </row>
     <row r="12" spans="2:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B12" s="32" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C12" s="76"/>
     </row>
     <row r="13" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C13" s="76"/>
     </row>
     <row r="14" spans="2:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B14" s="32" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C14" s="76"/>
     </row>
     <row r="15" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C15" s="76"/>
     </row>
     <row r="16" spans="2:5" ht="52.8" x14ac:dyDescent="0.25">
       <c r="B16" s="80" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C16" s="81" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B17" s="80" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="116.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="82" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C18" s="83"/>
     </row>
@@ -3868,7 +3874,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3876,7 +3882,7 @@
         <v>34</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3884,118 +3890,118 @@
         <v>2</v>
       </c>
       <c r="C23" s="76" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="74" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C24" s="76" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="74" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="78" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C27" s="79"/>
     </row>
     <row r="28" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="76"/>
     </row>
     <row r="29" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C29" s="76"/>
     </row>
     <row r="30" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="76"/>
     </row>
     <row r="31" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="76"/>
     </row>
     <row r="32" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="76"/>
     </row>
     <row r="33" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="76"/>
     </row>
     <row r="34" spans="2:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B34" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="76"/>
     </row>
     <row r="35" spans="2:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C35" s="76"/>
     </row>
     <row r="36" spans="2:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B36" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C36" s="76"/>
     </row>
     <row r="37" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" s="76"/>
     </row>
     <row r="38" spans="2:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B38" s="80" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C38" s="81" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B39" s="80" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="240.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="82" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C40" s="83"/>
     </row>
@@ -4010,7 +4016,7 @@
         <v>33</v>
       </c>
       <c r="C43" s="73" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4018,7 +4024,7 @@
         <v>34</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4026,83 +4032,83 @@
         <v>2</v>
       </c>
       <c r="C45" s="76" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="74" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C46" s="76" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="74" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="86" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C49" s="87"/>
     </row>
     <row r="50" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="24" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C50" s="76"/>
     </row>
     <row r="51" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="24" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C51" s="76"/>
     </row>
     <row r="52" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C52" s="76"/>
     </row>
     <row r="53" spans="2:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B53" s="32" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C53" s="76"/>
     </row>
     <row r="54" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C54" s="76"/>
     </row>
     <row r="55" spans="2:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B55" s="80" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C55" s="81" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="88" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -4117,7 +4123,7 @@
         <v>33</v>
       </c>
       <c r="C59" s="73" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4125,7 +4131,7 @@
         <v>34</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4133,71 +4139,71 @@
         <v>2</v>
       </c>
       <c r="C61" s="76" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="74" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C62" s="76" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="74" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="80" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C65" s="76"/>
     </row>
     <row r="66" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="24" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C66" s="76"/>
     </row>
     <row r="67" spans="2:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B67" s="32" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C67" s="76"/>
     </row>
     <row r="68" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="32" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C68" s="76"/>
     </row>
     <row r="69" spans="2:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B69" s="80" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C69" s="81" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="88" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C70" s="34" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4211,7 +4217,7 @@
         <v>33</v>
       </c>
       <c r="C73" s="73" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -4219,7 +4225,7 @@
         <v>34</v>
       </c>
       <c r="C74" s="75" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -4227,119 +4233,119 @@
         <v>2</v>
       </c>
       <c r="C75" s="76" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B76" s="74" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C76" s="76" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B77" s="74" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C78" s="44" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B79" s="86" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C79" s="87"/>
     </row>
     <row r="80" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B80" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C80" s="76"/>
     </row>
     <row r="81" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B81" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C81" s="76"/>
     </row>
     <row r="82" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B82" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C82" s="76"/>
     </row>
     <row r="83" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B83" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C83" s="76"/>
     </row>
     <row r="84" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B84" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C84" s="76"/>
     </row>
     <row r="85" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B85" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C85" s="76"/>
     </row>
     <row r="86" spans="2:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B86" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C86" s="76"/>
     </row>
     <row r="87" spans="2:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B87" s="32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C87" s="76"/>
     </row>
     <row r="88" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C88" s="76"/>
     </row>
     <row r="89" spans="2:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B89" s="32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C89" s="76"/>
     </row>
     <row r="90" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B90" s="32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C90" s="76"/>
     </row>
     <row r="91" spans="2:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B91" s="80" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="88" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
